--- a/SampleFastTagData.xlsx
+++ b/SampleFastTagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FastTag" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>HYUNDAI</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Xpulse</t>
   </si>
   <si>
-    <t>KA19P8488</t>
-  </si>
-  <si>
     <t>MH02FK9026</t>
   </si>
   <si>
@@ -102,6 +99,33 @@
   </si>
   <si>
     <t>GP791210</t>
+  </si>
+  <si>
+    <t>Policy End</t>
+  </si>
+  <si>
+    <t>Policy Start</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t>LML</t>
+  </si>
+  <si>
+    <t>Pulser</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>KL01AU585</t>
+  </si>
+  <si>
+    <t>GJ05KP2603</t>
+  </si>
+  <si>
+    <t>KL38P5008</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -495,7 +519,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -527,7 +551,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -565,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +624,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -614,34 +638,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2016</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>560</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>2019</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>1200</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="1">
-        <v>43910</v>
+        <v>44854</v>
       </c>
       <c r="H2" s="1">
-        <v>44275</v>
+        <v>45219</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -649,30 +673,94 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
+        <v>43910</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44275</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>850</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42849</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43214</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>2010</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>730</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
         <v>44854</v>
       </c>
-      <c r="H3" s="1">
-        <v>45219</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H5" s="1">
+        <v>45280</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
     </row>
